--- a/doc/Parameter Lists.xlsx
+++ b/doc/Parameter Lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvj/Documents/Code/Qt/Dice_Simulation/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D81651-E8FA-6F44-BA3B-E21A7DF08F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA7703A-8F94-4F4F-B2BA-60EE0EE90659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{76F75A56-CC9D-5A4C-918B-5582A92E4992}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="3" xr2:uid="{76F75A56-CC9D-5A4C-918B-5582A92E4992}"/>
   </bookViews>
   <sheets>
     <sheet name="DS GLOBAL" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,206 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Version of Dice Simulation</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>DS Include Path</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Identifier of the Dice</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Dice Type (Box, Cylinder)</t>
+  </si>
+  <si>
+    <t>Size_a</t>
+  </si>
+  <si>
+    <t>Half Extent of a Box (Discarded for Cylinder)</t>
+  </si>
+  <si>
+    <t>Size_b</t>
+  </si>
+  <si>
+    <t>Size_c</t>
+  </si>
+  <si>
+    <t>Size_R</t>
+  </si>
+  <si>
+    <t>size_H</t>
+  </si>
+  <si>
+    <t>Radius of a Cylinder (Discarded for Box)</t>
+  </si>
+  <si>
+    <t>Height of a Cylinder (Discarded for Box)</t>
+  </si>
+  <si>
+    <t>Cylinder_Sides</t>
+  </si>
+  <si>
+    <t>Number of Side Faces for the Cylinder</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Initial Position [m]</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Initial Orientation [m]</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Initial Linear Velocity [m/s]</t>
+  </si>
+  <si>
+    <t>Angular_Velocity</t>
+  </si>
+  <si>
+    <t>Initial Angular Velocity [rad/s]</t>
+  </si>
+  <si>
+    <t>Friction</t>
+  </si>
+  <si>
+    <t>Friction Coefficient</t>
+  </si>
+  <si>
+    <t>Bounciness</t>
+  </si>
+  <si>
+    <t>Bounciness of the Material</t>
+  </si>
+  <si>
+    <t>Damping</t>
+  </si>
+  <si>
+    <t>Angular Velocity Damping</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density of the Dice [kg/m^3]</t>
+  </si>
+  <si>
+    <t>Mass of the Dice [kg]</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>Dice for Simulation</t>
+  </si>
+  <si>
+    <t>Angular_Damping</t>
+  </si>
+  <si>
+    <t>Linear Velocity Damping</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Contents to Print, Divided by ','</t>
+  </si>
+  <si>
+    <t>Print_Condition</t>
+  </si>
+  <si>
+    <t>The Condition Statement for Print</t>
+  </si>
+  <si>
+    <t>Time_Step</t>
+  </si>
+  <si>
+    <t>Time Step for Simulation Update [s]</t>
+  </si>
+  <si>
+    <t>Time_Limit</t>
+  </si>
+  <si>
+    <t>Time Limit for Simulation [s]</t>
+  </si>
+  <si>
+    <t>Stop_Threshold</t>
+  </si>
+  <si>
+    <t>Threshold for Velocity and Angular Velocity as Zero</t>
+  </si>
+  <si>
+    <t>Before_Update</t>
+  </si>
+  <si>
+    <t>C++ Commands to Add Before Simulation Update in Each Loop</t>
+  </si>
+  <si>
+    <t>After_Update_1</t>
+  </si>
+  <si>
+    <t>C++ Commands to Add Between Simulation Update and Print in Each Loop</t>
+  </si>
+  <si>
+    <t>After_Update_2</t>
+  </si>
+  <si>
+    <t>After_Update_3</t>
+  </si>
+  <si>
+    <t>C++ Commands to Add Between Simulation Print and Stopping Condition Check in Each Loop</t>
+  </si>
+  <si>
+    <t>C++ Commands to Add After Stopping Condition Check in Each Loop</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,8 +261,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,24 +578,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBD17A1-1071-AF43-B8F6-99D7A6C6E947}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0732C2-9CEC-BB44-8AB8-B1ACFC0D98C9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -417,12 +809,187 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFD0C58-6ECB-7C4D-8259-6EEC08B2F5F1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>